--- a/lib/assets/abastecimento.xlsx
+++ b/lib/assets/abastecimento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Higor\Documents\aplicativos_flutter\cdrotas2\meuapp\lib\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DA809C-C71B-49BB-84CD-48F9F259922F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D182AAC-908A-4955-8DC9-9C87F69D519B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{03621DC1-C603-454A-B78E-5BB21856FA40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="12">
   <si>
     <t>Nr. DT</t>
   </si>
@@ -78,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,8 +97,135 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,8 +250,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -147,11 +447,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -189,9 +637,66 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -505,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225350CE-1445-4D82-80D9-C1DD1EFA7544}">
   <dimension ref="A1:B306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171:A185"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206:A226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1996,168 +2501,332 @@
       </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
+      <c r="A186" s="9">
+        <v>10049846</v>
+      </c>
+      <c r="B186" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
+      <c r="A187" s="9">
+        <v>10049846</v>
+      </c>
+      <c r="B187" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
+      <c r="A188" s="9">
+        <v>10049846</v>
+      </c>
+      <c r="B188" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
+      <c r="A189" s="9">
+        <v>10049846</v>
+      </c>
+      <c r="B189" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
+      <c r="A190" s="9">
+        <v>10049846</v>
+      </c>
+      <c r="B190" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
+      <c r="A191" s="12">
+        <v>10049846</v>
+      </c>
+      <c r="B191" s="14" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
+      <c r="A192" s="12">
+        <v>10049846</v>
+      </c>
+      <c r="B192" s="14" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
+      <c r="A193" s="9">
+        <v>10049846</v>
+      </c>
+      <c r="B193" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
+      <c r="A194" s="12">
+        <v>10001181</v>
+      </c>
+      <c r="B194" s="16" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
+      <c r="A195" s="12">
+        <v>10045114</v>
+      </c>
+      <c r="B195" s="16" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
+      <c r="A196" s="12">
+        <v>10045114</v>
+      </c>
+      <c r="B196" s="16" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
+      <c r="A197" s="12">
+        <v>10045114</v>
+      </c>
+      <c r="B197" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="198" spans="1:2">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
+      <c r="A198" s="12">
+        <v>10040496</v>
+      </c>
+      <c r="B198" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
+      <c r="A199" s="12">
+        <v>10040496</v>
+      </c>
+      <c r="B199" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="200" spans="1:2">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
+      <c r="A200" s="12">
+        <v>10053449</v>
+      </c>
+      <c r="B200" s="13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
+      <c r="A201" s="12">
+        <v>10054180</v>
+      </c>
+      <c r="B201" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
+      <c r="A202" s="12">
+        <v>10054180</v>
+      </c>
+      <c r="B202" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
+      <c r="A203" s="12">
+        <v>10054180</v>
+      </c>
+      <c r="B203" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="204" spans="1:2">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
+      <c r="A204" s="12">
+        <v>10055340</v>
+      </c>
+      <c r="B204" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="205" spans="1:2">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
+      <c r="A205" s="12">
+        <v>10055341</v>
+      </c>
+      <c r="B205" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="206" spans="1:2">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
+      <c r="A206" s="11">
+        <v>10019377</v>
+      </c>
+      <c r="B206" s="18" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
+      <c r="A207" s="11">
+        <v>10019377</v>
+      </c>
+      <c r="B207" s="18" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
+      <c r="A208" s="11">
+        <v>10019377</v>
+      </c>
+      <c r="B208" s="18" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
+      <c r="A209" s="11">
+        <v>10031210</v>
+      </c>
+      <c r="B209" s="18" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="210" spans="1:2">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
+      <c r="A210" s="11">
+        <v>10031210</v>
+      </c>
+      <c r="B210" s="18" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
+      <c r="A211" s="11">
+        <v>10031210</v>
+      </c>
+      <c r="B211" s="18" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
+      <c r="A212" s="11">
+        <v>10031210</v>
+      </c>
+      <c r="B212" s="18" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
+      <c r="A213" s="9">
+        <v>10049846</v>
+      </c>
+      <c r="B213" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
+      <c r="A214" s="9">
+        <v>10049846</v>
+      </c>
+      <c r="B214" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
+      <c r="A215" s="9">
+        <v>10049846</v>
+      </c>
+      <c r="B215" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="2"/>
-      <c r="B216" s="5"/>
+      <c r="A216" s="9">
+        <v>10049846</v>
+      </c>
+      <c r="B216" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
+      <c r="A217" s="9">
+        <v>10049846</v>
+      </c>
+      <c r="B217" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2"/>
+      <c r="A218" s="9">
+        <v>10049846</v>
+      </c>
+      <c r="B218" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
+      <c r="A219" s="9">
+        <v>10049846</v>
+      </c>
+      <c r="B219" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
+      <c r="A220" s="9">
+        <v>10049846</v>
+      </c>
+      <c r="B220" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="221" spans="1:2">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
+      <c r="A221" s="9">
+        <v>10001181</v>
+      </c>
+      <c r="B221" s="18" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
+      <c r="A222" s="9">
+        <v>10045114</v>
+      </c>
+      <c r="B222" s="18" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="223" spans="1:2">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
+      <c r="A223" s="12">
+        <v>10045114</v>
+      </c>
+      <c r="B223" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="224" spans="1:2">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
+      <c r="A224" s="12">
+        <v>10045114</v>
+      </c>
+      <c r="B224" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
+      <c r="A225" s="9">
+        <v>10040496</v>
+      </c>
+      <c r="B225" s="18" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="226" spans="1:2">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
+      <c r="A226" s="9">
+        <v>10040496</v>
+      </c>
+      <c r="B226" s="18" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2"/>
